--- a/biology/Botanique/Eleocharis_uniglumis/Eleocharis_uniglumis.xlsx
+++ b/biology/Botanique/Eleocharis_uniglumis/Eleocharis_uniglumis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scirpe à une écaille, Héléocharis à une écaille, Éléocharide uniglume, Souchet à une glume
 Eleocharis uniglumis, connu en français selon les noms de Scirpe à une écaille, Souchet à une glume, Héléocharis à une écaille et Éléocharide uniglume est une plante herbacée de la famille des Cyperaceae.
@@ -512,9 +524,11 @@
           <t>Noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est connue en France sous le nom de Scirpe à une écaille et de Souchet à une glume, en Suisse comme étant l'Héléocharis à une écaille et au Canada comme étant l'Éléocharide uniglume[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est connue en France sous le nom de Scirpe à une écaille et de Souchet à une glume, en Suisse comme étant l'Héléocharis à une écaille et au Canada comme étant l'Éléocharide uniglume.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,17 +585,19 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (4 juin 2014)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (4 juin 2014) :
 sous-espèce Eleocharis uniglumis subsp. septentrionalis
 sous-espèce Eleocharis uniglumis subsp. sterneri
 sous-espèce Eleocharis uniglumis subsp. uniglumis
-Selon NCBI  (4 juin 2014)[6] :
+Selon NCBI  (4 juin 2014) :
 sous-espèce Eleocharis uniglumis subsp. sterneri
-Selon The Plant List            (4 juin 2014)[1] :
+Selon The Plant List            (4 juin 2014) :
 sous-espèce Eleocharis uniglumis subsp. septentrionalis (Zinserl.) T.V.Egorova
-Selon Tropicos                                           (4 juin 2014)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (4 juin 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Eleocharis uniglumis subsp. fennica (Palla ex Kneuck. &amp; G. Zinserl.) Vestergr.
 sous-espèce Eleocharis uniglumis subsp. septentrionalis T.V. Egorova
 sous-espèce Eleocharis uniglumis subsp. sterneri Strandh.
